--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="dress_data" sheetId="5" r:id="rId3"/>
     <sheet name="score_k" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>20000</v>
+        <v>1125000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -673,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>40000</v>
+        <v>3000000</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
-        <v>60000</v>
+        <v>6000000</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>80000</v>
+        <v>9750000</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
-        <v>100100</v>
+        <v>14250000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="11">
-        <v>260100</v>
+        <v>19875000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <v>300200</v>
+        <v>25500000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>340300</v>
+        <v>31125000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
-        <v>380300</v>
+        <v>38625000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
-        <v>420400</v>
+        <v>46125000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="11">
-        <v>700700</v>
+        <v>53625000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>760900</v>
+        <v>63000000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -797,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>821000</v>
+        <v>72375000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="11">
-        <v>881200</v>
+        <v>81750000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11">
-        <v>941400</v>
+        <v>93000000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11">
-        <v>1342000</v>
+        <v>104250000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>1422300</v>
+        <v>115500000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <v>1502600</v>
+        <v>128625000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="11">
-        <v>1582900</v>
+        <v>141750000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="11">
-        <v>1663200</v>
+        <v>154875000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="11">
-        <v>2184400</v>
+        <v>169875000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="11">
-        <v>2284800</v>
+        <v>184875000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>2385300</v>
+        <v>199875000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="11">
-        <v>2485800</v>
+        <v>214875000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1737,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -160,7 +160,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金币，3D锁定，2D锁定</t>
+    <t>200,3,3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock","prop_fish_lock"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币，锁定-3D捕鱼，锁定-街机捕鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -952,7 +960,7 @@
     <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
@@ -990,16 +998,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -1060,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -1081,7 +1089,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1102,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1122,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1142,7 +1150,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1162,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1182,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1202,7 +1210,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1222,7 +1230,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1262,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1282,7 +1290,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,7 +1310,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,7 +1330,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1342,7 +1350,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1362,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1382,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1402,7 +1410,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1422,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1462,7 +1470,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>1125000</v>
+        <v>375000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>3000000</v>
+        <v>1125000</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
-        <v>6000000</v>
+        <v>1875000</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>9750000</v>
+        <v>2250000</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
-        <v>14250000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="11">
-        <v>19875000</v>
+        <v>5625000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <v>25500000</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>31125000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
-        <v>38625000</v>
+        <v>18750000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
-        <v>46125000</v>
+        <v>37500000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="11">
-        <v>53625000</v>
+        <v>56250000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>63000000</v>
+        <v>93750000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>72375000</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="11">
-        <v>81750000</v>
+        <v>187500000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -827,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11">
-        <v>93000000</v>
+        <v>225000000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11">
-        <v>104250000</v>
+        <v>281250000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>115500000</v>
+        <v>337500000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <v>128625000</v>
+        <v>375000000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -871,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="11">
-        <v>141750000</v>
+        <v>937500000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="11">
-        <v>154875000</v>
+        <v>1500000000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="11">
-        <v>169875000</v>
+        <v>1875000000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="11">
-        <v>184875000</v>
+        <v>2250000000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>199875000</v>
+        <v>2812500000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="11">
-        <v>214875000</v>
+        <v>3375000000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -148,27 +148,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_lock","prop_fish_lock"</t>
+    <t>"jing_bi","prop_3d_fish_lock"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>500,3,3,</t>
+    <t>200,3,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"com_award_icon_jingbi","3dby_btn_sd","by_btn_sd",</t>
+    <t>500,3,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>200,3,3,</t>
+    <t>500,3,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_lock","prop_fish_lock"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币，锁定-3D捕鱼，锁定-街机捕鱼</t>
+    <t>500,3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_jingbi","3dby_btn_sd"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币，锁定，</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -616,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -998,16 +1002,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,13 +1025,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1041,13 +1045,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -1062,13 +1066,13 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -1083,13 +1087,13 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1104,13 +1108,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1124,13 +1128,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1144,13 +1148,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1164,13 +1168,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1184,13 +1188,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1204,13 +1208,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,13 +1228,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1244,13 +1248,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1264,13 +1268,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,13 +1288,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1304,13 +1308,13 @@
         <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,13 +1328,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1344,13 +1348,13 @@
         <v>28</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1364,13 +1368,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1384,13 +1388,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1404,13 +1408,13 @@
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1424,13 +1428,13 @@
         <v>28</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1444,13 +1448,13 @@
         <v>28</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,13 +1468,13 @@
         <v>28</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,7 +1516,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -148,31 +148,83 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_lock"</t>
+    <t>鱼币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin",</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>200,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_jingbi","3dby_btn_sd"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币，锁定，</t>
+    <t>72000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>72000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>108000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>108000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>144000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>216000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>216000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2520000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2880000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3240000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5400000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5400000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7200000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yubi",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +673,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>375000</v>
+        <v>75000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -685,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>1125000</v>
+        <v>75000</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -697,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
-        <v>1875000</v>
+        <v>75000</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -709,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>2250000</v>
+        <v>112500</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -721,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
-        <v>3750000</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -732,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="11">
-        <v>5625000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -743,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <v>9375000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -754,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>15000000</v>
+        <v>187500</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -765,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
-        <v>18750000</v>
+        <v>187500</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -776,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
-        <v>37500000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -787,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="11">
-        <v>56250000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -798,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>93750000</v>
+        <v>2625000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -809,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>150000000</v>
+        <v>2625000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -820,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="11">
-        <v>187500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -831,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11">
-        <v>225000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11">
-        <v>281250000</v>
+        <v>3375000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>337500000</v>
+        <v>3375000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -864,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <v>375000000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -875,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="11">
-        <v>937500000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -886,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="11">
-        <v>1500000000</v>
+        <v>5625000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -897,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="11">
-        <v>1875000000</v>
+        <v>5625000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -908,7 +960,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="11">
-        <v>2250000000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -919,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>2812500000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -930,7 +982,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="11">
-        <v>3375000000</v>
+        <v>11250000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,7 +1006,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,7 +1014,7 @@
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
@@ -1002,16 +1054,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,16 +1074,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,16 +1094,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -1063,16 +1115,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -1084,16 +1136,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1105,16 +1157,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1125,16 +1177,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1145,16 +1197,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1165,16 +1217,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1185,16 +1237,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1205,16 +1257,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1225,16 +1277,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1245,16 +1297,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1265,16 +1317,16 @@
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1285,16 +1337,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,16 +1357,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1325,16 +1377,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1345,16 +1397,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1365,16 +1417,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1385,16 +1437,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,16 +1457,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1425,16 +1477,16 @@
         <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1445,16 +1497,16 @@
         <v>24</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,16 +1517,16 @@
         <v>25</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
     <sheet name="award_data" sheetId="4" r:id="rId2"/>
     <sheet name="dress_data" sheetId="5" r:id="rId3"/>
     <sheet name="score_k" sheetId="7" r:id="rId4"/>
+    <sheet name="unlock" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -57,6 +58,250 @@
   </si>
   <si>
     <t>|备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|段位等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame|段位解锁的头像框id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase|段位解锁的短语id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression|段位解锁的表情id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|配置id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id|游戏id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>add|增加分数系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec|减少分数系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_type|游戏type</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_3d_game</t>
+  </si>
+  <si>
+    <t>tantanle_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_image|财富图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_index|解锁的炮索引</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_award_types|解锁炮等级奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_award_nums|解锁炮等级奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>no|行号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_gun|解锁炮倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7200,</t>
+  </si>
+  <si>
+    <t>7920,</t>
+  </si>
+  <si>
+    <t>8640,</t>
+  </si>
+  <si>
+    <t>9720,</t>
+  </si>
+  <si>
+    <t>10800,</t>
+  </si>
+  <si>
+    <t>11808,</t>
+  </si>
+  <si>
+    <t>12960,</t>
+  </si>
+  <si>
+    <t>14220,</t>
+  </si>
+  <si>
+    <t>15570,</t>
+  </si>
+  <si>
+    <t>100000,</t>
+  </si>
+  <si>
+    <t>110880,</t>
+  </si>
+  <si>
+    <t>123480,</t>
+  </si>
+  <si>
+    <t>136800,</t>
+  </si>
+  <si>
+    <t>151200,</t>
+  </si>
+  <si>
+    <t>166860,</t>
+  </si>
+  <si>
+    <t>183060,</t>
+  </si>
+  <si>
+    <t>201600,</t>
+  </si>
+  <si>
+    <t>221400,</t>
+  </si>
+  <si>
+    <t>243000,</t>
+  </si>
+  <si>
+    <t>"fish_coin",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,1,</t>
+  </si>
+  <si>
+    <t>5100,1,</t>
+  </si>
+  <si>
+    <t>5200,1,</t>
+  </si>
+  <si>
+    <t>5300,1,</t>
+  </si>
+  <si>
+    <t>5400,1,</t>
+  </si>
+  <si>
+    <t>5500,1,</t>
+  </si>
+  <si>
+    <t>5600,1,</t>
+  </si>
+  <si>
+    <t>5700,1,</t>
+  </si>
+  <si>
+    <t>5800,1,</t>
+  </si>
+  <si>
+    <t>5900,1,</t>
+  </si>
+  <si>
+    <t>6000,1,</t>
+  </si>
+  <si>
+    <t>6100,1,</t>
+  </si>
+  <si>
+    <t>6200,1,</t>
+  </si>
+  <si>
+    <t>6300,1,</t>
+  </si>
+  <si>
+    <t>6400,1,</t>
+  </si>
+  <si>
+    <t>6500,1,</t>
+  </si>
+  <si>
+    <t>6600,1,</t>
+  </si>
+  <si>
+    <t>6700,1,</t>
+  </si>
+  <si>
+    <t>6800,1,</t>
+  </si>
+  <si>
+    <t>6900,1,</t>
+  </si>
+  <si>
+    <t>7000,1,</t>
+  </si>
+  <si>
+    <t>7100,1,</t>
+  </si>
+  <si>
+    <t>7200,1,</t>
+  </si>
+  <si>
+    <t>7300,1,</t>
+  </si>
+  <si>
+    <t>"com_award_icon_yubi","3dby_btn_sd"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币，锁定，</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -76,163 +321,12 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
-  <si>
-    <t>level|段位等级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame|段位解锁的头像框id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>phrase|段位解锁的短语id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>expression|段位解锁的表情id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|配置id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_id|游戏id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>add|增加分数系数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec|减少分数系数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_type|游戏type</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_3d_game</t>
-  </si>
-  <si>
-    <t>tantanle_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaole_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaole_caishen_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaole_shuihu_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>zajindan_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>guess_apple_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset_image|财富图片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fish_coin",</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>72000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>72000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>108000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>108000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>144000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>216000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>216000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2520000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2880000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3240000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5400000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5400000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7200000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yubi",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +411,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -360,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,6 +501,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,8 +835,9 @@
         <v>75000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
     </row>
@@ -737,8 +849,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>75000</v>
-      </c>
+        <v>150000</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -749,8 +863,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
-        <v>75000</v>
-      </c>
+        <v>225000</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -761,8 +877,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>112500</v>
-      </c>
+        <v>337500</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -773,8 +891,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
-        <v>112500</v>
-      </c>
+        <v>450000</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -784,8 +904,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11">
-        <v>150000</v>
-      </c>
+        <v>600000</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -795,8 +917,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <v>150000</v>
-      </c>
+        <v>750000</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -806,8 +930,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>187500</v>
-      </c>
+        <v>937500</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -817,8 +943,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
-        <v>187500</v>
-      </c>
+        <v>1125000</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -828,8 +956,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
-        <v>225000</v>
-      </c>
+        <v>1350000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -839,8 +969,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="11">
-        <v>225000</v>
-      </c>
+        <v>1575000</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -850,8 +982,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>2625000</v>
-      </c>
+        <v>4200000</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -861,8 +995,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>2625000</v>
-      </c>
+        <v>6825000</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -872,8 +1008,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="11">
-        <v>3000000</v>
-      </c>
+        <v>9825000</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -883,10 +1021,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="11">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12825000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -894,10 +1034,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="11">
-        <v>3375000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16200000</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -905,10 +1047,12 @@
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>3375000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19575000</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -916,10 +1060,12 @@
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <v>3750000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23325000</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -927,10 +1073,12 @@
         <v>19</v>
       </c>
       <c r="C20" s="11">
-        <v>3750000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27075000</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -938,10 +1086,12 @@
         <v>20</v>
       </c>
       <c r="C21" s="11">
-        <v>5625000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32700000</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -949,10 +1099,12 @@
         <v>21</v>
       </c>
       <c r="C22" s="11">
-        <v>5625000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38325000</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -960,10 +1112,12 @@
         <v>22</v>
       </c>
       <c r="C23" s="11">
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49575000</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -971,10 +1125,12 @@
         <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60825000</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -982,10 +1138,12 @@
         <v>24</v>
       </c>
       <c r="C25" s="11">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83325000</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1005,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1172,7 @@
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
@@ -1028,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1037,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1054,16 +1212,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,16 +1232,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1094,16 +1252,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -1115,16 +1273,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -1136,16 +1294,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1157,16 +1315,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1177,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1197,16 +1355,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1217,16 +1375,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,16 +1395,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1257,16 +1415,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1277,16 +1435,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1297,16 +1455,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1317,16 +1475,16 @@
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1337,16 +1495,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1357,16 +1515,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1377,16 +1535,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,16 +1555,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1417,16 +1575,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1437,16 +1595,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1457,16 +1615,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1477,16 +1635,16 @@
         <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,16 +1655,16 @@
         <v>24</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1517,16 +1675,16 @@
         <v>25</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1577,7 +1735,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,13 +1755,13 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
@@ -1728,7 +1886,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1741,19 +1899,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1761,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1778,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1795,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1812,7 +1970,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1829,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1846,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1863,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1880,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1897,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -1914,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1931,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1948,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1965,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1982,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1999,7 +2157,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2016,4 +2174,509 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="6" max="7" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"fish_coin",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>no|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -160,71 +156,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>7200,</t>
-  </si>
-  <si>
-    <t>7920,</t>
-  </si>
-  <si>
-    <t>8640,</t>
-  </si>
-  <si>
-    <t>9720,</t>
-  </si>
-  <si>
-    <t>10800,</t>
-  </si>
-  <si>
-    <t>11808,</t>
-  </si>
-  <si>
-    <t>12960,</t>
-  </si>
-  <si>
-    <t>14220,</t>
-  </si>
-  <si>
-    <t>15570,</t>
-  </si>
-  <si>
-    <t>100000,</t>
-  </si>
-  <si>
-    <t>110880,</t>
-  </si>
-  <si>
-    <t>123480,</t>
-  </si>
-  <si>
-    <t>136800,</t>
-  </si>
-  <si>
-    <t>151200,</t>
-  </si>
-  <si>
-    <t>166860,</t>
-  </si>
-  <si>
-    <t>183060,</t>
-  </si>
-  <si>
-    <t>201600,</t>
-  </si>
-  <si>
-    <t>221400,</t>
-  </si>
-  <si>
-    <t>243000,</t>
-  </si>
-  <si>
-    <t>"fish_coin",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fish_coin","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>5000,1,</t>
   </si>
   <si>
@@ -295,14 +226,6 @@
   </si>
   <si>
     <t>7300,1,</t>
-  </si>
-  <si>
-    <t>"com_award_icon_yubi","3dby_btn_sd"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币，锁定，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -321,12 +244,23 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>"fish_coin","prop_3d_fish_lock"</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,13 +341,6 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -468,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,11 +426,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +765,7 @@
         <v>75000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E2" s="11"/>
       <c r="H2" s="3"/>
@@ -1161,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,523 +1135,40 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="7"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="7"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="7"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="7"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2178,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2195,10 +1642,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -2213,469 +1660,490 @@
         <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="5">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="5">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>7</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="5">
-        <v>700</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5">
-        <v>800</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>9</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="5">
-        <v>900</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1000</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>12</v>
+      <c r="B11" s="12">
+        <v>11</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
+      <c r="B12" s="12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
-        <v>14</v>
+      <c r="B13" s="12">
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
-        <v>15</v>
+      <c r="B14" s="12">
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
-        <v>16</v>
+      <c r="B15" s="12">
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5">
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
-        <v>17</v>
+      <c r="B16" s="12">
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
-        <v>18</v>
+      <c r="B17" s="12">
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="5">
-        <v>7000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
-        <v>19</v>
+      <c r="B18" s="12">
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="5">
-        <v>8000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
-        <v>20</v>
+      <c r="B19" s="12">
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="5">
-        <v>9000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
-        <v>21</v>
+      <c r="B20" s="12">
+        <v>20</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12">
+        <v>22</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <v>23</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12">
+        <v>24</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G24" s="5"/>
     </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12">
+        <v>25</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="144">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -377,6 +377,224 @@
   </si>
   <si>
     <t>6800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips|标签</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunlv_tips|炮台解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_img|炮台icon</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级领炮台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级解锁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级领炮台</t>
+  </si>
+  <si>
+    <t>30级领头像框</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级解锁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+  </si>
+  <si>
+    <t>50级解锁</t>
+  </si>
+  <si>
+    <t>60级解锁</t>
+  </si>
+  <si>
+    <t>70级解锁</t>
+  </si>
+  <si>
+    <t>80级解锁</t>
+  </si>
+  <si>
+    <t>90级解锁</t>
+  </si>
+  <si>
+    <t>100级解锁</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级领头像框</t>
+  </si>
+  <si>
+    <t>100级领炮台</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90级领头像框</t>
+  </si>
+  <si>
+    <t>80级领炮台</t>
+  </si>
+  <si>
+    <t>70级领头像框</t>
+  </si>
+  <si>
+    <t>60级领炮台</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt3</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,12 +732,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,6 +784,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,17 +1064,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.375" style="2" customWidth="1"/>
@@ -1202,7 +1434,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>153937500</v>
+        <v>163312500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1213,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>210187500</v>
+        <v>238312500</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1224,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>275812500</v>
+        <v>332062500</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,7 +1467,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>350812500</v>
+        <v>444562500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1246,7 +1478,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <v>435187500</v>
+        <v>575812500</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,7 +1489,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="2">
-        <v>528937500</v>
+        <v>725812500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,7 +1500,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <v>622687500</v>
+        <v>894562500</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>735187500</v>
+        <v>1082062500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,7 +1522,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>866437500</v>
+        <v>1288312500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>1016437500</v>
+        <v>1513312500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,7 +1544,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <v>1185187500</v>
+        <v>1757062500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,7 +1555,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="2">
-        <v>1372687500</v>
+        <v>2019562500</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,7 +1566,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="2">
-        <v>1578937500</v>
+        <v>2300812500</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,7 +1577,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="2">
-        <v>1803937500</v>
+        <v>2600812500</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,7 +1588,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="2">
-        <v>2047687500</v>
+        <v>2938312500</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,7 +1599,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="2">
-        <v>2347687500</v>
+        <v>3500812500</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1378,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="2">
-        <v>2685187500</v>
+        <v>4250812500</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,7 +1621,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="2">
-        <v>3060187500</v>
+        <v>5188312500</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,7 +1632,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="2">
-        <v>3622687500</v>
+        <v>6313312500</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="2">
-        <v>4372687500</v>
+        <v>7625812500</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,7 +1654,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="2">
-        <v>5310187500</v>
+        <v>9125812500</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1665,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="2">
-        <v>6435187500</v>
+        <v>10813312500</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,7 +1676,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="2">
-        <v>7747687500</v>
+        <v>12688312500</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,7 +1687,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="2">
-        <v>9247687500</v>
+        <v>14750812500</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,7 +1698,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="2">
-        <v>10935187500</v>
+        <v>17563312500</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1477,7 +1709,557 @@
         <v>50</v>
       </c>
       <c r="C51" s="2">
-        <v>99999999999</v>
+        <v>21313312500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2">
+        <v>28813312500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2">
+        <v>38188312500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
+        <v>49438312500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
+        <v>62563312500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2">
+        <v>77563312500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2">
+        <v>94438312500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2">
+        <v>113188312500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2">
+        <v>133813312500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2">
+        <v>156313312500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2">
+        <v>180688312500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2">
+        <v>206938312500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2">
+        <v>235063312500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2">
+        <v>265063312500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2">
+        <v>296938312500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2">
+        <v>330688312500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2">
+        <v>366313312500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2">
+        <v>403813312500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2">
+        <v>443188312500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2">
+        <v>484438312500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2">
+        <v>559438312500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2">
+        <v>671938312500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2">
+        <v>821938312500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1009438312500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1234438312500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1496938312500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1796938312500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2134438312500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2509438312500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2921938312500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3371938312500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3859438312500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4384438312500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4946938312500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5546938312500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6184438312500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6859438312500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2">
+        <v>7571938312500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2">
+        <v>8321938312500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2">
+        <v>9109438312500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9934438312500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10796938312500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2">
+        <v>11696938312500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2">
+        <v>12634438312500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2">
+        <v>13609438312500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2">
+        <v>14621938312500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2">
+        <v>15671938312500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2">
+        <v>16759438312500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2">
+        <v>17884438312500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>99</v>
+      </c>
+      <c r="C100" s="2">
+        <v>19046938312500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2">
+        <v>999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +2274,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1731,7 +2513,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2023,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2036,9 +2818,12 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="37.125" customWidth="1"/>
     <col min="6" max="7" width="43.375" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2060,8 +2845,17 @@
       <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2084,7 +2878,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2107,7 +2901,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2130,7 +2924,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2153,7 +2947,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2176,7 +2970,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2191,7 +2985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2214,7 +3008,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2237,7 +3031,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2260,7 +3054,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2283,7 +3077,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2306,7 +3100,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2329,7 +3123,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2352,7 +3146,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2375,7 +3169,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2398,7 +3192,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2411,8 +3205,11 @@
       <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2425,8 +3222,11 @@
       <c r="F18" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2439,8 +3239,11 @@
       <c r="F19" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2453,8 +3256,11 @@
       <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2467,8 +3273,11 @@
       <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2484,8 +3293,11 @@
         <v>57</v>
       </c>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2501,8 +3313,11 @@
         <v>58</v>
       </c>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2518,8 +3333,11 @@
         <v>59</v>
       </c>
       <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2532,8 +3350,17 @@
       <c r="F25" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2546,8 +3373,10 @@
       <c r="F26" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2560,8 +3389,10 @@
       <c r="F27" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2574,8 +3405,10 @@
       <c r="F28" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2588,8 +3421,10 @@
       <c r="F29" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2602,8 +3437,14 @@
       <c r="F30" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2616,8 +3457,11 @@
       <c r="F31" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2630,8 +3474,11 @@
       <c r="F32" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2644,8 +3491,11 @@
       <c r="F33" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2658,8 +3508,11 @@
       <c r="F34" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2672,8 +3525,11 @@
       <c r="F35" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2686,8 +3542,11 @@
       <c r="F36" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2700,8 +3559,11 @@
       <c r="F37" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2714,8 +3576,11 @@
       <c r="F38" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2728,8 +3593,11 @@
       <c r="F39" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2742,8 +3610,17 @@
       <c r="F40" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2756,8 +3633,10 @@
       <c r="F41" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2770,8 +3649,10 @@
       <c r="F42" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2784,8 +3665,10 @@
       <c r="F43" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2798,8 +3681,10 @@
       <c r="F44" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2812,8 +3697,10 @@
       <c r="F45" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2826,8 +3713,10 @@
       <c r="F46" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2840,8 +3729,10 @@
       <c r="F47" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2854,8 +3745,10 @@
       <c r="F48" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2868,8 +3761,10 @@
       <c r="F49" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2881,6 +3776,868 @@
       </c>
       <c r="F50" s="13" t="s">
         <v>85</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12">
+        <v>51</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12">
+        <v>52</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12">
+        <v>53</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12">
+        <v>54</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12">
+        <v>55</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12">
+        <v>56</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12">
+        <v>57</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12">
+        <v>58</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12">
+        <v>59</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12">
+        <v>60</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12">
+        <v>61</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12">
+        <v>62</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12">
+        <v>63</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12">
+        <v>64</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12">
+        <v>65</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12">
+        <v>66</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12">
+        <v>67</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12">
+        <v>68</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12">
+        <v>69</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12">
+        <v>70</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12">
+        <v>71</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12">
+        <v>72</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12">
+        <v>73</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12">
+        <v>74</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12">
+        <v>75</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12">
+        <v>76</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12">
+        <v>77</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12">
+        <v>78</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12">
+        <v>79</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12">
+        <v>80</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12">
+        <v>81</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12">
+        <v>82</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12">
+        <v>83</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12">
+        <v>84</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12">
+        <v>85</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12">
+        <v>86</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12">
+        <v>87</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12">
+        <v>88</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="12">
+        <v>89</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12">
+        <v>90</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="12">
+        <v>91</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="12">
+        <v>92</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="12">
+        <v>93</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12">
+        <v>94</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="12">
+        <v>95</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12">
+        <v>96</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="12">
+        <v>97</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="12">
+        <v>98</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="12">
+        <v>99</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="12">
+        <v>100</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="145">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -595,6 +595,10 @@
   </si>
   <si>
     <t>3dby_icon_djpt3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_type|是否是炮台</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2805,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2823,7 +2827,7 @@
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2854,8 +2858,11 @@
       <c r="J1" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K1" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2878,7 +2885,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2901,7 +2908,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2947,7 +2954,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2970,7 +2977,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2985,7 +2992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3008,7 +3015,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3031,7 +3038,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3054,7 +3061,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3123,7 +3130,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3146,7 +3153,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3192,7 +3199,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3209,7 +3216,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3226,7 +3233,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3243,7 +3250,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3260,7 +3267,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3277,7 +3284,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3297,7 +3304,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3317,7 +3324,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3337,7 +3344,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3359,8 +3366,11 @@
       <c r="J25" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3376,7 +3386,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3392,7 +3402,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3408,7 +3418,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3424,7 +3434,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3443,8 +3453,11 @@
       <c r="I30" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3461,7 +3474,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3478,7 +3491,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3495,7 +3508,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3512,7 +3525,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3529,7 +3542,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3546,7 +3559,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3563,7 +3576,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3580,7 +3593,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3597,7 +3610,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3619,8 +3632,11 @@
       <c r="J40" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3636,7 +3652,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3652,7 +3668,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3668,7 +3684,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3684,7 +3700,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3700,7 +3716,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3716,7 +3732,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3732,7 +3748,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3748,7 +3764,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3764,7 +3780,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3783,8 +3799,11 @@
       <c r="I50" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3801,7 +3820,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3818,7 +3837,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3835,7 +3854,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3852,7 +3871,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3869,7 +3888,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3886,7 +3905,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3903,7 +3922,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3920,7 +3939,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3937,7 +3956,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3959,8 +3978,11 @@
       <c r="J60" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3976,7 +3998,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3992,7 +4014,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4008,7 +4030,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4024,7 +4046,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4040,7 +4062,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4056,7 +4078,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4072,7 +4094,7 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4088,7 +4110,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4104,7 +4126,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4123,8 +4145,11 @@
       <c r="I70" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4141,7 +4166,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4158,7 +4183,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4175,7 +4200,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4192,7 +4217,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4209,7 +4234,7 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4226,7 +4251,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4243,7 +4268,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4260,7 +4285,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4277,7 +4302,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4299,8 +4324,11 @@
       <c r="J80" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4316,7 +4344,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4332,7 +4360,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4348,7 +4376,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4364,7 +4392,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4380,7 +4408,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4396,7 +4424,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4412,7 +4440,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4428,7 +4456,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4444,7 +4472,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4463,8 +4491,11 @@
       <c r="I90" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4481,7 +4512,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4498,7 +4529,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4515,7 +4546,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4532,7 +4563,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4549,7 +4580,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4566,7 +4597,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4583,7 +4614,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4600,7 +4631,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4617,7 +4648,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4638,6 +4669,9 @@
       </c>
       <c r="J100" s="7" t="s">
         <v>137</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -599,6 +599,22 @@
   </si>
   <si>
     <t>gun_type|是否是炮台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx4</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2811,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3453,6 +3469,9 @@
       <c r="I30" s="7" t="s">
         <v>126</v>
       </c>
+      <c r="J30" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="K30">
         <v>2</v>
       </c>
@@ -3799,6 +3818,9 @@
       <c r="I50" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="J50" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="K50">
         <v>2</v>
       </c>
@@ -4145,6 +4167,9 @@
       <c r="I70" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="J70" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="K70">
         <v>2</v>
       </c>
@@ -4490,6 +4515,9 @@
       </c>
       <c r="I90" s="7" t="s">
         <v>132</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="K90">
         <v>2</v>

--- a/config_debug/level_server.xlsx
+++ b/config_debug/level_server.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
